--- a/SU - Suspension/05 - Essais/Essais Vulcanix/test-traction.xlsx
+++ b/SU - Suspension/05 - Essais/Essais Vulcanix/test-traction.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>effort max</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>P2, 2nd round</t>
+  </si>
+  <si>
+    <t>Ecart-type P2</t>
   </si>
 </sst>
 </file>
@@ -1764,10 +1767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E28"/>
+  <dimension ref="B2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2094,6 +2097,15 @@
         <v>15</v>
       </c>
     </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <f>STDEV(D19:D28)</f>
+        <v>1.7280689286663951</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
